--- a/周数据/《个人上线率统计表》-周俊.xlsx
+++ b/周数据/《个人上线率统计表》-周俊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -163,6 +163,30 @@
     <t>新品牌</t>
   </si>
   <si>
+    <t>2018.1.2</t>
+  </si>
+  <si>
+    <t>扬州五十岚餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50岚 </t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>50岚江都金鹰店</t>
+  </si>
+  <si>
+    <t>姚先生</t>
+  </si>
+  <si>
+    <t>运营负责人</t>
+  </si>
+  <si>
+    <t>50岚润茂店</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -211,13 +235,31 @@
     <t>还未确定具体上线时间，等待和销售沟通</t>
   </si>
   <si>
-    <t>50岚江都金鹰店</t>
-  </si>
-  <si>
     <t>已经远程安装好店铺还未营业，暂无数据</t>
   </si>
   <si>
-    <t>50岚润茂店</t>
+    <t>川海丰尚砂锅麻辣烫</t>
+  </si>
+  <si>
+    <t>2017.12.29</t>
+  </si>
+  <si>
+    <t>还在装修，未确定具体时间</t>
+  </si>
+  <si>
+    <t>武耀</t>
+  </si>
+  <si>
+    <t>元力小厨</t>
+  </si>
+  <si>
+    <t>2017.12.27</t>
+  </si>
+  <si>
+    <t>万彤</t>
+  </si>
+  <si>
+    <t>今日上线安装，明天可以正式使用</t>
   </si>
   <si>
     <t>姓名</t>
@@ -247,9 +289,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -320,30 +362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +385,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -365,7 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,16 +415,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,19 +438,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,6 +494,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,25 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,37 +593,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +630,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,12 +671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -641,19 +683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,17 +1082,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,16 +1125,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,10 +1187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,137 +1199,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1355,6 +1397,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,13 +1856,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1824,293 +1872,501 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
+      <c r="A3" s="40">
         <v>12</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="41">
         <v>50</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="42">
         <v>2</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="43">
         <v>1</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="43">
         <v>1</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="59">
         <v>0</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="60">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="61">
         <f>C3+G3</f>
         <v>2</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="62">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="63">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41">
         <v>51</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="42">
         <v>2</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="43">
         <v>1</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="43">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42">
-        <f t="shared" ref="H4:H8" si="0">F4-G4</f>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44">
+        <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="59">
         <v>0</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="60">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="61">
         <v>2</v>
       </c>
-      <c r="L4" s="60">
-        <f t="shared" ref="L4:L8" si="1">D4+G4</f>
+      <c r="L4" s="62">
+        <f t="shared" ref="L4:L14" si="1">D4+G4</f>
         <v>1</v>
       </c>
-      <c r="M4" s="61">
-        <f t="shared" ref="M4:M8" si="2">L4/K4*100%</f>
+      <c r="M4" s="63">
+        <f t="shared" ref="M4:M14" si="2">L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41">
         <v>52</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="42">
         <v>3</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="43">
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="43">
         <v>3</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="59">
         <v>0</v>
       </c>
-      <c r="J5" s="58" t="e">
-        <f t="shared" ref="J5:J8" si="3">I5/L5*100%</f>
+      <c r="J5" s="60" t="e">
+        <f t="shared" ref="J5:J14" si="3">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="61">
         <v>3</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58" t="e">
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="59">
-        <f t="shared" ref="K4:K8" si="5">C6+G6</f>
+      <c r="K6" s="61">
+        <f t="shared" ref="K4:K9" si="5">C6+G6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="61" t="e">
+      <c r="M6" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58" t="e">
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="61" t="e">
+      <c r="M7" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48">
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63" t="e">
+      <c r="I8" s="64"/>
+      <c r="J8" s="65" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="66" t="e">
+      <c r="M8" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="40">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>5</v>
+      </c>
+      <c r="D9" s="43">
+        <v>2</v>
+      </c>
+      <c r="E9" s="43">
+        <v>3</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <v>2</v>
+      </c>
+      <c r="J9" s="60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="61">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L9" s="62">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="63">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
+        <v>0</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="J10" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="61">
+        <v>2</v>
+      </c>
+      <c r="L10" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43">
+        <v>0</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="59">
+        <v>0</v>
+      </c>
+      <c r="J11" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="61">
+        <v>3</v>
+      </c>
+      <c r="L11" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43">
+        <f t="shared" ref="E12:E14" si="6">C12-D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="61">
+        <f t="shared" ref="K12:K14" si="7">C12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="63" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="63" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2123,8 +2379,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2143,50 +2399,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="26" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2285,41 +2541,101 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76108876</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1">
+        <v>13814094120</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15996213885</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1">
+        <v>76118600</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1">
+        <v>13814094120</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15996213885</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7341,6 +7657,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O2:O4 O6:O1048576">
+      <formula1>"新品牌,老品牌"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
@@ -7350,9 +7669,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7366,8 +7682,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7389,19 +7705,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7412,19 +7728,19 @@
         <v>42</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7531,22 +7847,22 @@
         <v>51</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:7">
@@ -7662,64 +7978,64 @@
         <v>51</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16"/>
       <c r="B28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="G28" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16"/>
       <c r="B29" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7831,31 +8147,69 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:7">
+      <c r="A42" s="13">
+        <v>1</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="8"/>
+      <c r="B43" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="B44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="16"/>
@@ -7999,7 +8353,7 @@
       <c r="D60" s="19"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="23"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="16"/>
@@ -8107,7 +8461,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="16"/>
@@ -8197,7 +8551,7 @@
       <c r="D82" s="19"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="23"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="16"/>
@@ -8283,10 +8637,10 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E27 E2:E13 E15:E26 E28:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E27 E42 E43 E44 E2:E13 E15:E26 E28:E41 E45:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F14 F27 F2:F13 F15:F26 F28:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F14 F27 F42 F43 F44 F2:F13 F15:F26 F28:F41 F45:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8319,13 +8673,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8339,7 +8693,7 @@
         <v>43013</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8353,7 +8707,7 @@
         <v>43014</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8367,7 +8721,7 @@
         <v>43057</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8381,7 +8735,7 @@
         <v>43058</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:4">

--- a/周数据/《个人上线率统计表》-周俊.xlsx
+++ b/周数据/《个人上线率统计表》-周俊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="21300" windowHeight="8922" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -163,9 +163,6 @@
     <t>新品牌</t>
   </si>
   <si>
-    <t>2018.1.2</t>
-  </si>
-  <si>
     <t>扬州五十岚餐饮管理有限公司</t>
   </si>
   <si>
@@ -288,9 +285,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -362,48 +359,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,11 +381,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,16 +465,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,21 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -484,23 +496,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,67 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +590,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,43 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +680,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,11 +1079,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,50 +1133,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,11 +1161,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,10 +1184,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,133 +1196,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1402,9 +1399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,6 +1413,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1862,23 +1859,23 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.12612612612613" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.12612612612613" style="9" customWidth="1"/>
+    <col min="3" max="4" width="16.2522522522523" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.7477477477477" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.8738738738739" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5045045045045" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8738738738739" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8738738738739" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.8738738738739" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.8738738738739" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.6216216216216" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
+    <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1892,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="53"/>
     </row>
-    <row r="2" ht="14.25" spans="1:13">
+    <row r="2" ht="14.85" spans="1:13">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
+    <row r="8" ht="14.85" spans="1:13">
       <c r="A8" s="46"/>
       <c r="B8" s="47"/>
       <c r="C8" s="48"/>
@@ -2329,7 +2326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:13">
+    <row r="14" ht="14.85" spans="1:13">
       <c r="A14" s="46"/>
       <c r="B14" s="47"/>
       <c r="C14" s="48"/>
@@ -2379,70 +2376,70 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="3" width="11.4833333333333" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="9.73333333333333"/>
+    <col min="1" max="1" width="12.8378378378378" customWidth="1"/>
+    <col min="2" max="3" width="11.4864864864865" customWidth="1"/>
+    <col min="4" max="4" width="27.8738738738739" customWidth="1"/>
+    <col min="5" max="5" width="9.72972972972973"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="14.1261261261261" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
-    <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.975" customWidth="1"/>
+    <col min="9" max="9" width="9.86486486486486" customWidth="1"/>
+    <col min="10" max="10" width="13.9189189189189" customWidth="1"/>
+    <col min="11" max="11" width="17.972972972973" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.73333333333333"/>
+    <col min="15" max="16384" width="9.72972972972973"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="25" customFormat="1" ht="28.3" spans="1:15">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2541,29 +2538,29 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="24">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
+      <c r="B4" s="29">
+        <v>43102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G4" s="1">
         <v>76108876</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
@@ -2575,10 +2572,10 @@
         <v>13814094120</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="N4" s="1">
         <v>15996213885</v>
@@ -2588,29 +2585,29 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="24">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
+      <c r="B5" s="29">
+        <v>43102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G5" s="1">
         <v>76118600</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>35</v>
@@ -2622,10 +2619,10 @@
         <v>13814094120</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="N5" s="1">
         <v>15996213885</v>
@@ -2635,7 +2632,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7686,18 +7683,18 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="9"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.62162162162162" style="9"/>
+    <col min="2" max="2" width="15.6216216216216" customWidth="1"/>
+    <col min="3" max="3" width="12.7477477477477" customWidth="1"/>
+    <col min="4" max="4" width="35.2522522522523" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5045045045045" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.3783783783784" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.15" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -7705,22 +7702,22 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" ht="14.15" spans="1:7">
       <c r="A2" s="13">
         <v>50</v>
       </c>
@@ -7728,19 +7725,19 @@
         <v>42</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7842,30 +7839,30 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" ht="14.15" spans="1:7">
       <c r="A14" s="13">
         <v>51</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:7">
+    </row>
+    <row r="15" ht="15" spans="1:7">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -7874,7 +7871,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" ht="15" spans="1:7">
       <c r="A16" s="16"/>
       <c r="B16" s="14"/>
       <c r="C16" s="18"/>
@@ -7978,64 +7975,64 @@
         <v>51</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16"/>
       <c r="B28" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16"/>
       <c r="B29" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8146,69 +8143,69 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" ht="14.25" spans="1:7">
+    <row r="42" ht="15" spans="1:7">
       <c r="A42" s="13">
         <v>1</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="D42" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="16"/>
       <c r="B43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="D43" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" ht="14.15" spans="1:7">
       <c r="A44" s="16"/>
       <c r="B44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="D44" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -8319,7 +8316,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" ht="14.25" spans="1:7">
+    <row r="57" ht="15" spans="1:7">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="18"/>
@@ -8328,7 +8325,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" ht="14.25" spans="1:7">
+    <row r="58" ht="15" spans="1:7">
       <c r="A58" s="16"/>
       <c r="B58" s="14"/>
       <c r="C58" s="22"/>
@@ -8337,7 +8334,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" ht="14.25" spans="1:7">
+    <row r="59" ht="15" spans="1:7">
       <c r="A59" s="16"/>
       <c r="B59" s="14"/>
       <c r="C59" s="22"/>
@@ -8346,14 +8343,14 @@
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
+    <row r="60" ht="15" spans="1:7">
       <c r="A60" s="16"/>
       <c r="B60" s="14"/>
       <c r="C60" s="22"/>
       <c r="D60" s="19"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="16"/>
@@ -8427,7 +8424,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" ht="14.25" spans="1:7">
+    <row r="69" ht="15" spans="1:7">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="18"/>
@@ -8436,7 +8433,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" ht="14.25" spans="1:7">
+    <row r="70" ht="15" spans="1:7">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="22"/>
@@ -8445,7 +8442,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" ht="14.25" spans="1:7">
+    <row r="71" ht="15" spans="1:7">
       <c r="A71" s="16"/>
       <c r="B71" s="14"/>
       <c r="C71" s="22"/>
@@ -8454,14 +8451,14 @@
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" ht="14.25" spans="1:7">
+    <row r="72" ht="15" spans="1:7">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="22"/>
       <c r="D72" s="19"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="16"/>
@@ -8535,7 +8532,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="14.25" spans="1:7">
+    <row r="81" ht="15" spans="1:7">
       <c r="A81" s="16"/>
       <c r="B81" s="14"/>
       <c r="C81" s="22"/>
@@ -8544,14 +8541,14 @@
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" ht="14.25" spans="1:7">
+    <row r="82" ht="15" spans="1:7">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="22"/>
       <c r="D82" s="19"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="25"/>
+      <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="16"/>
@@ -8659,27 +8656,27 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1261261261261" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7477477477477" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" ht="14.85" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8693,7 +8690,7 @@
         <v>43013</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8707,7 +8704,7 @@
         <v>43014</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8721,7 +8718,7 @@
         <v>43057</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8735,7 +8732,7 @@
         <v>43058</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:4">
